--- a/images/lec3/Source/One Function to Draw Them All.xlsx
+++ b/images/lec3/Source/One Function to Draw Them All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EvilS\eclipse-workspace\control LaTeX\images\lec3\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57744975-D681-4EF0-9253-2BF30255AF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735FBF5-B555-435F-BAD9-F6432B17333D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,14 +119,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20235,31 +20235,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
